--- a/csv/rf/rf_pc15_init.xlsx
+++ b/csv/rf/rf_pc15_init.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Best Perf." r:id="rId3" sheetId="1"/>
-    <sheet name="Best Par." r:id="rId4" sheetId="2"/>
-    <sheet name="Perf." r:id="rId5" sheetId="3"/>
+    <sheet name="Sel. Par." r:id="rId4" sheetId="2"/>
+    <sheet name="Best Par." r:id="rId5" sheetId="3"/>
+    <sheet name="Perf." r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>x</t>
   </si>
@@ -28,24 +29,27 @@
     <t>mtry</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -53,9 +57,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>10</t>
@@ -315,7 +316,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29264069264069265</v>
+        <v>0.3015151515151515</v>
       </c>
     </row>
   </sheetData>
@@ -345,10 +346,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -372,6 +373,39 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
@@ -390,10 +424,10 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43116883116883115</v>
+        <v>0.47705627705627707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08981916087648142</v>
+        <v>0.09549028658811612</v>
       </c>
     </row>
     <row r="3">
@@ -407,10 +441,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3670995670995671</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09213312786624586</v>
+        <v>0.10780485987358825</v>
       </c>
     </row>
     <row r="4">
@@ -424,10 +458,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3482683982683983</v>
+        <v>0.3303030303030303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1202698636990612</v>
+        <v>0.14891327442744798</v>
       </c>
     </row>
     <row r="5">
@@ -441,15 +475,15 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32056277056277055</v>
+        <v>0.33441558441558444</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08130548061281447</v>
+        <v>0.10768624867999495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>500.0</v>
@@ -458,15 +492,15 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29264069264069265</v>
+        <v>0.33441558441558444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0996757881790536</v>
+        <v>0.10086698787717077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>10.0</v>
@@ -475,15 +509,15 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4354978354978355</v>
+        <v>0.4127705627705628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06346582167920789</v>
+        <v>0.1130389251554942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>50.0</v>
@@ -492,15 +526,15 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32012987012987015</v>
+        <v>0.3525974025974026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09464291042691489</v>
+        <v>0.10195114112939081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>100.0</v>
@@ -509,15 +543,15 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.32445887445887445</v>
+        <v>0.32965367965367964</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10392841609129595</v>
+        <v>0.08959429672413854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>250.0</v>
@@ -526,10 +560,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.32532467532467535</v>
+        <v>0.3015151515151515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08350135793908735</v>
+        <v>0.10869570604088373</v>
       </c>
     </row>
     <row r="11">
@@ -543,10 +577,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3112554112554113</v>
+        <v>0.333982683982684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0906498973435688</v>
+        <v>0.08598914491657475</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +594,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.462987012987013</v>
+        <v>0.3474025974025974</v>
       </c>
       <c r="E12" t="n">
-        <v>0.13196344843065835</v>
+        <v>0.09325100265742614</v>
       </c>
     </row>
     <row r="13">
@@ -577,10 +611,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.33874458874458874</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09482314826019489</v>
+        <v>0.08096125453908751</v>
       </c>
     </row>
     <row r="14">
@@ -594,10 +628,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1191232432851792</v>
+        <v>0.08574756060192584</v>
       </c>
     </row>
     <row r="15">
@@ -611,10 +645,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3248917748917749</v>
+        <v>0.3341991341991342</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1099025840809437</v>
+        <v>0.09261214288585187</v>
       </c>
     </row>
     <row r="16">
@@ -628,10 +662,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.32056277056277055</v>
+        <v>0.3385281385281385</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1349937297659448</v>
+        <v>0.07758196309269297</v>
       </c>
     </row>
     <row r="17">
@@ -645,10 +679,10 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3614718614718615</v>
+        <v>0.40259740259740256</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09432087067740837</v>
+        <v>0.11407928066985493</v>
       </c>
     </row>
     <row r="18">
@@ -662,10 +696,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11653520986764775</v>
+        <v>0.09567001625323822</v>
       </c>
     </row>
     <row r="19">
@@ -679,10 +713,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31623376623376626</v>
+        <v>0.3385281385281385</v>
       </c>
       <c r="E19" t="n">
-        <v>0.10798650947310871</v>
+        <v>0.10300645234667506</v>
       </c>
     </row>
     <row r="20">
@@ -696,10 +730,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.3430735930735931</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08781467058199917</v>
+        <v>0.09868088571476075</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +747,10 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.32532467532467535</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0888298959991396</v>
+        <v>0.09415072993137667</v>
       </c>
     </row>
     <row r="22">
@@ -730,10 +764,10 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3893939393939394</v>
+        <v>0.3848484848484849</v>
       </c>
       <c r="E22" t="n">
-        <v>0.078205153609663</v>
+        <v>0.08418277983099486</v>
       </c>
     </row>
     <row r="23">
@@ -747,10 +781,10 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.35173160173160173</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0520306582266752</v>
+        <v>0.13078004155038886</v>
       </c>
     </row>
     <row r="24">
@@ -764,10 +798,10 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3112554112554113</v>
+        <v>0.34783549783549783</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08270425273273438</v>
+        <v>0.09259443536830574</v>
       </c>
     </row>
     <row r="25">
@@ -781,10 +815,10 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3346320346320346</v>
+        <v>0.3430735930735931</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09618554483501572</v>
+        <v>0.09609376639324553</v>
       </c>
     </row>
     <row r="26">
@@ -798,10 +832,10 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32056277056277055</v>
+        <v>0.33874458874458874</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1014084600014527</v>
+        <v>0.09009952410232457</v>
       </c>
     </row>
     <row r="27">
@@ -815,10 +849,10 @@
         <v>6.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.39372294372294375</v>
+        <v>0.42164502164502166</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07603844039831467</v>
+        <v>0.09973843927043669</v>
       </c>
     </row>
     <row r="28">
@@ -832,10 +866,10 @@
         <v>6.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3294372294372295</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0926773223516064</v>
+        <v>0.08678547068103225</v>
       </c>
     </row>
     <row r="29">
@@ -849,10 +883,10 @@
         <v>6.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3203463203463204</v>
+        <v>0.3383116883116883</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08018077478677083</v>
+        <v>0.10260059906979263</v>
       </c>
     </row>
     <row r="30">
@@ -866,10 +900,10 @@
         <v>6.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.32056277056277055</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1014084600014527</v>
+        <v>0.1057868678395935</v>
       </c>
     </row>
     <row r="31">
@@ -883,10 +917,10 @@
         <v>6.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2974025974025974</v>
+        <v>0.34329004329004326</v>
       </c>
       <c r="E31" t="n">
-        <v>0.10920289418523792</v>
+        <v>0.10858142402243348</v>
       </c>
     </row>
     <row r="32">
@@ -900,10 +934,10 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3437229437229437</v>
+        <v>0.38051948051948054</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09395479799137085</v>
+        <v>0.11592520734678011</v>
       </c>
     </row>
     <row r="33">
@@ -917,10 +951,10 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.333982683982684</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1082587730228463</v>
+        <v>0.09537491811512036</v>
       </c>
     </row>
     <row r="34">
@@ -934,10 +968,10 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3158008658008658</v>
+        <v>0.36147186147186144</v>
       </c>
       <c r="E34" t="n">
-        <v>0.10820322048990566</v>
+        <v>0.08375625893755528</v>
       </c>
     </row>
     <row r="35">
@@ -951,10 +985,10 @@
         <v>7.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.35238095238095235</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09533533887150446</v>
+        <v>0.09184792033939856</v>
       </c>
     </row>
     <row r="36">
@@ -968,10 +1002,10 @@
         <v>7.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.34783549783549783</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09604933472786356</v>
+        <v>0.10836474877722371</v>
       </c>
     </row>
     <row r="37">
@@ -985,10 +1019,10 @@
         <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3612554112554113</v>
+        <v>0.4218614718614719</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07114341025906465</v>
+        <v>0.08585221943971393</v>
       </c>
     </row>
     <row r="38">
@@ -1002,10 +1036,10 @@
         <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34393939393939393</v>
+        <v>0.3658008658008658</v>
       </c>
       <c r="E38" t="n">
-        <v>0.10273445707868313</v>
+        <v>0.09492054278611071</v>
       </c>
     </row>
     <row r="39">
@@ -1019,10 +1053,10 @@
         <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09373402385273806</v>
+        <v>0.10113268175386435</v>
       </c>
     </row>
     <row r="40">
@@ -1036,10 +1070,10 @@
         <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.3569264069264069</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09774564143741288</v>
+        <v>0.09767451755774491</v>
       </c>
     </row>
     <row r="41">
@@ -1053,10 +1087,10 @@
         <v>8.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3391774891774892</v>
+        <v>0.36168831168831167</v>
       </c>
       <c r="E41" t="n">
-        <v>0.11016562361118877</v>
+        <v>0.10010650259168331</v>
       </c>
     </row>
     <row r="42">
@@ -1070,10 +1104,10 @@
         <v>9.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3770562770562771</v>
+        <v>0.3751082251082251</v>
       </c>
       <c r="E42" t="n">
-        <v>0.128685473896574</v>
+        <v>0.08178808193923491</v>
       </c>
     </row>
     <row r="43">
@@ -1087,10 +1121,10 @@
         <v>9.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3432900432900433</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E43" t="n">
-        <v>0.11213337575929543</v>
+        <v>0.10780123824626188</v>
       </c>
     </row>
     <row r="44">
@@ -1104,10 +1138,10 @@
         <v>9.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3255411255411256</v>
+        <v>0.3432900432900433</v>
       </c>
       <c r="E44" t="n">
-        <v>0.11106987484652109</v>
+        <v>0.07839629098593082</v>
       </c>
     </row>
     <row r="45">
@@ -1121,10 +1155,10 @@
         <v>9.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3525974025974026</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1019511411293908</v>
+        <v>0.10179452169856162</v>
       </c>
     </row>
     <row r="46">
@@ -1138,10 +1172,10 @@
         <v>9.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.32922077922077925</v>
+        <v>0.37554112554112556</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09394731792187183</v>
+        <v>0.09471328795015964</v>
       </c>
     </row>
     <row r="47">
@@ -1158,7 +1192,7 @@
         <v>0.3699134199134199</v>
       </c>
       <c r="E47" t="n">
-        <v>0.13110464237914046</v>
+        <v>0.09875576541608926</v>
       </c>
     </row>
     <row r="48">
@@ -1172,10 +1206,10 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3162337662337662</v>
+        <v>0.37056277056277054</v>
       </c>
       <c r="E48" t="n">
-        <v>0.10343134988775203</v>
+        <v>0.0925649153114641</v>
       </c>
     </row>
     <row r="49">
@@ -1189,10 +1223,10 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.32987012987012987</v>
+        <v>0.36688311688311687</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09998032077123521</v>
+        <v>0.11706668819023738</v>
       </c>
     </row>
     <row r="50">
@@ -1206,10 +1240,10 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3341991341991342</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09887034796177079</v>
+        <v>0.10393117092992737</v>
       </c>
     </row>
     <row r="51">
@@ -1223,10 +1257,10 @@
         <v>10.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3335497835497836</v>
+        <v>0.370995670995671</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08847405355432449</v>
+        <v>0.09153794273022274</v>
       </c>
     </row>
     <row r="52">
@@ -1240,10 +1274,10 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.3569264069264069</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08962450481715756</v>
+        <v>0.12000120943595165</v>
       </c>
     </row>
     <row r="53">
@@ -1257,10 +1291,10 @@
         <v>11.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.33441558441558444</v>
+        <v>0.37077922077922076</v>
       </c>
       <c r="E53" t="n">
-        <v>0.10664185829019254</v>
+        <v>0.09341163708116969</v>
       </c>
     </row>
     <row r="54">
@@ -1274,10 +1308,10 @@
         <v>11.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.34805194805194806</v>
+        <v>0.3528138528138528</v>
       </c>
       <c r="E54" t="n">
-        <v>0.10872802819952365</v>
+        <v>0.11986470220661002</v>
       </c>
     </row>
     <row r="55">
@@ -1291,10 +1325,10 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.33376623376623377</v>
+        <v>0.3564935064935065</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0924748913019231</v>
+        <v>0.08289443587595687</v>
       </c>
     </row>
     <row r="56">
@@ -1308,10 +1342,10 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1045245144874509</v>
+        <v>0.09215035912297835</v>
       </c>
     </row>
     <row r="57">
@@ -1325,10 +1359,10 @@
         <v>12.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3612554112554113</v>
+        <v>0.4082251082251082</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1136286902743783</v>
+        <v>0.11649142499939909</v>
       </c>
     </row>
     <row r="58">
@@ -1342,10 +1376,10 @@
         <v>12.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3158008658008658</v>
+        <v>0.38073593073593076</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08703852893649147</v>
+        <v>0.1214285928635286</v>
       </c>
     </row>
     <row r="59">
@@ -1359,10 +1393,10 @@
         <v>12.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.31082251082251083</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0983953470123407</v>
+        <v>0.08893619550377581</v>
       </c>
     </row>
     <row r="60">
@@ -1376,10 +1410,10 @@
         <v>12.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3430735930735931</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09069840907105035</v>
+        <v>0.1034451895338965</v>
       </c>
     </row>
     <row r="61">
@@ -1393,10 +1427,10 @@
         <v>12.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.370995670995671</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09362872357824811</v>
+        <v>0.08849023251429883</v>
       </c>
     </row>
     <row r="62">
@@ -1410,10 +1444,10 @@
         <v>13.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3616883116883117</v>
+        <v>0.3569264069264069</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07113609278493818</v>
+        <v>0.08065622972141259</v>
       </c>
     </row>
     <row r="63">
@@ -1427,10 +1461,10 @@
         <v>13.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3800865800865801</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E63" t="n">
-        <v>0.11077421235892393</v>
+        <v>0.10632776474973885</v>
       </c>
     </row>
     <row r="64">
@@ -1444,10 +1478,10 @@
         <v>13.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3567099567099567</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0965992201387223</v>
+        <v>0.113941389562211</v>
       </c>
     </row>
     <row r="65">
@@ -1461,10 +1495,10 @@
         <v>13.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.34761904761904766</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08813065601093238</v>
+        <v>0.10607312115106168</v>
       </c>
     </row>
     <row r="66">
@@ -1478,10 +1512,10 @@
         <v>13.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.34740259740259744</v>
+        <v>0.36645021645021647</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09204296432335873</v>
+        <v>0.09786938547395016</v>
       </c>
     </row>
     <row r="67">
@@ -1495,10 +1529,10 @@
         <v>14.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3943722943722944</v>
+        <v>0.3794372294372294</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1270079014868679</v>
+        <v>0.11282688853959336</v>
       </c>
     </row>
     <row r="68">
@@ -1512,10 +1546,10 @@
         <v>14.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3575757575757576</v>
+        <v>0.37012987012987014</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09920464382634955</v>
+        <v>0.09482726554589449</v>
       </c>
     </row>
     <row r="69">
@@ -1529,10 +1563,10 @@
         <v>14.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.33831168831168834</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06260905396592699</v>
+        <v>0.0917413063506628</v>
       </c>
     </row>
     <row r="70">
@@ -1546,10 +1580,10 @@
         <v>14.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3569264069264069</v>
+        <v>0.3943722943722944</v>
       </c>
       <c r="E70" t="n">
-        <v>0.10448790288094491</v>
+        <v>0.10080787838282544</v>
       </c>
     </row>
     <row r="71">
@@ -1563,10 +1597,10 @@
         <v>14.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3474025974025974</v>
+        <v>0.370995670995671</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1085145240367255</v>
+        <v>0.11018995611007706</v>
       </c>
     </row>
     <row r="72">
@@ -1580,10 +1614,10 @@
         <v>15.0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.38073593073593076</v>
+        <v>0.38441558441558443</v>
       </c>
       <c r="E72" t="n">
-        <v>0.10026238406604075</v>
+        <v>0.1044866573626136</v>
       </c>
     </row>
     <row r="73">
@@ -1597,10 +1631,10 @@
         <v>15.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3474025974025974</v>
+        <v>0.38463203463203466</v>
       </c>
       <c r="E73" t="n">
-        <v>0.10376700533067831</v>
+        <v>0.11359936638619152</v>
       </c>
     </row>
     <row r="74">
@@ -1614,10 +1648,10 @@
         <v>15.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E74" t="n">
-        <v>0.10995254373188305</v>
+        <v>0.11297443440069922</v>
       </c>
     </row>
     <row r="75">
@@ -1631,10 +1665,10 @@
         <v>15.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="E75" t="n">
-        <v>0.10328302358933561</v>
+        <v>0.10483383138211352</v>
       </c>
     </row>
     <row r="76">
@@ -1648,10 +1682,10 @@
         <v>15.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3523809523809524</v>
+        <v>0.37554112554112556</v>
       </c>
       <c r="E76" t="n">
-        <v>0.10294376744333729</v>
+        <v>0.08923450219903623</v>
       </c>
     </row>
   </sheetData>

--- a/csv/rf/rf_pc15_init.xlsx
+++ b/csv/rf/rf_pc15_init.xlsx
@@ -316,7 +316,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.31147186147186146</v>
       </c>
     </row>
   </sheetData>
@@ -424,10 +424,10 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47705627705627707</v>
+        <v>0.44523809523809527</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09549028658811612</v>
+        <v>0.12205971263425536</v>
       </c>
     </row>
     <row r="3">
@@ -441,10 +441,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3575757575757576</v>
+        <v>0.35281385281385286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10780485987358825</v>
+        <v>0.07512620849203532</v>
       </c>
     </row>
     <row r="4">
@@ -458,10 +458,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3303030303030303</v>
+        <v>0.32987012987012987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14891327442744798</v>
+        <v>0.095042214057417</v>
       </c>
     </row>
     <row r="5">
@@ -475,10 +475,10 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33441558441558444</v>
+        <v>0.3303030303030303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.10768624867999495</v>
+        <v>0.09251091141821545</v>
       </c>
     </row>
     <row r="6">
@@ -492,10 +492,10 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33441558441558444</v>
+        <v>0.34393939393939393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.10086698787717077</v>
+        <v>0.0851520641309757</v>
       </c>
     </row>
     <row r="7">
@@ -509,10 +509,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4127705627705628</v>
+        <v>0.46904761904761905</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1130389251554942</v>
+        <v>0.13572289665386578</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3525974025974026</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10195114112939081</v>
+        <v>0.07755377660482124</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.3212121212121212</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08959429672413854</v>
+        <v>0.09767318515586895</v>
       </c>
     </row>
     <row r="10">
@@ -560,10 +560,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.31147186147186146</v>
       </c>
       <c r="E10" t="n">
-        <v>0.10869570604088373</v>
+        <v>0.09934962761234761</v>
       </c>
     </row>
     <row r="11">
@@ -577,10 +577,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.333982683982684</v>
+        <v>0.32056277056277055</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08598914491657475</v>
+        <v>0.07603844039831469</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +594,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3474025974025974</v>
+        <v>0.4367965367965368</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09325100265742614</v>
+        <v>0.1442885998268029</v>
       </c>
     </row>
     <row r="13">
@@ -611,10 +611,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.34393939393939393</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08096125453908751</v>
+        <v>0.08488878360966753</v>
       </c>
     </row>
     <row r="14">
@@ -628,10 +628,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3476190476190476</v>
+        <v>0.3294372294372294</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08574756060192584</v>
+        <v>0.11930227692987393</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3341991341991342</v>
+        <v>0.353030303030303</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09261214288585187</v>
+        <v>0.10660377644457039</v>
       </c>
     </row>
     <row r="16">
@@ -662,10 +662,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3385281385281385</v>
+        <v>0.34415584415584416</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07758196309269297</v>
+        <v>0.11825130496628047</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.40259740259740256</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11407928066985493</v>
+        <v>0.06973781289476486</v>
       </c>
     </row>
     <row r="18">
@@ -696,10 +696,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.34285714285714286</v>
+        <v>0.3577922077922078</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09567001625323822</v>
+        <v>0.07929322472033587</v>
       </c>
     </row>
     <row r="19">
@@ -713,10 +713,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3385281385281385</v>
+        <v>0.3577922077922078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.10300645234667506</v>
+        <v>0.1250968653250783</v>
       </c>
     </row>
     <row r="20">
@@ -730,10 +730,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3430735930735931</v>
+        <v>0.36233766233766235</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09868088571476075</v>
+        <v>0.11689291463041425</v>
       </c>
     </row>
     <row r="21">
@@ -747,10 +747,10 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3476190476190476</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09415072993137667</v>
+        <v>0.11924204683674819</v>
       </c>
     </row>
     <row r="22">
@@ -764,10 +764,10 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3848484848484849</v>
+        <v>0.3573593073593074</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08418277983099486</v>
+        <v>0.05541435552294663</v>
       </c>
     </row>
     <row r="23">
@@ -781,10 +781,10 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3523809523809524</v>
+        <v>0.3534632034632035</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13078004155038886</v>
+        <v>0.09695557728920773</v>
       </c>
     </row>
     <row r="24">
@@ -798,10 +798,10 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.34783549783549783</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09259443536830574</v>
+        <v>0.08363186222708284</v>
       </c>
     </row>
     <row r="25">
@@ -815,10 +815,10 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3430735930735931</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09609376639324553</v>
+        <v>0.10024057525254335</v>
       </c>
     </row>
     <row r="26">
@@ -832,10 +832,10 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.33874458874458874</v>
+        <v>0.35779220779220783</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09009952410232457</v>
+        <v>0.10902565865841676</v>
       </c>
     </row>
     <row r="27">
@@ -849,10 +849,10 @@
         <v>6.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42164502164502166</v>
+        <v>0.39956709956709957</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09973843927043669</v>
+        <v>0.1289416868871375</v>
       </c>
     </row>
     <row r="28">
@@ -866,10 +866,10 @@
         <v>6.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.3718614718614719</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08678547068103225</v>
+        <v>0.1054171566380099</v>
       </c>
     </row>
     <row r="29">
@@ -883,10 +883,10 @@
         <v>6.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3383116883116883</v>
+        <v>0.3577922077922078</v>
       </c>
       <c r="E29" t="n">
-        <v>0.10260059906979263</v>
+        <v>0.08780429601053748</v>
       </c>
     </row>
     <row r="30">
@@ -900,10 +900,10 @@
         <v>6.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.3664502164502164</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1057868678395935</v>
+        <v>0.10445601293526077</v>
       </c>
     </row>
     <row r="31">
@@ -917,10 +917,10 @@
         <v>6.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.34329004329004326</v>
+        <v>0.3534632034632035</v>
       </c>
       <c r="E31" t="n">
-        <v>0.10858142402243348</v>
+        <v>0.11866460753438274</v>
       </c>
     </row>
     <row r="32">
@@ -934,10 +934,10 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.38051948051948054</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11592520734678011</v>
+        <v>0.08943815604516628</v>
       </c>
     </row>
     <row r="33">
@@ -951,10 +951,10 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.333982683982684</v>
+        <v>0.32532467532467535</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09537491811512036</v>
+        <v>0.1236192057514761</v>
       </c>
     </row>
     <row r="34">
@@ -968,10 +968,10 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.36147186147186144</v>
+        <v>0.3573593073593074</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08375625893755528</v>
+        <v>0.10045948670350574</v>
       </c>
     </row>
     <row r="35">
@@ -985,10 +985,10 @@
         <v>7.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.35238095238095235</v>
+        <v>0.35281385281385286</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09184792033939856</v>
+        <v>0.1058222921633426</v>
       </c>
     </row>
     <row r="36">
@@ -1002,10 +1002,10 @@
         <v>7.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.34783549783549783</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E36" t="n">
-        <v>0.10836474877722371</v>
+        <v>0.11140681403013018</v>
       </c>
     </row>
     <row r="37">
@@ -1019,10 +1019,10 @@
         <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4218614718614719</v>
+        <v>0.37662337662337664</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08585221943971393</v>
+        <v>0.147969226614057</v>
       </c>
     </row>
     <row r="38">
@@ -1036,10 +1036,10 @@
         <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3658008658008658</v>
+        <v>0.35757575757575755</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09492054278611071</v>
+        <v>0.09852540803063112</v>
       </c>
     </row>
     <row r="39">
@@ -1053,10 +1053,10 @@
         <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.35757575757575755</v>
       </c>
       <c r="E39" t="n">
-        <v>0.10113268175386435</v>
+        <v>0.10996579935389895</v>
       </c>
     </row>
     <row r="40">
@@ -1070,10 +1070,10 @@
         <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3569264069264069</v>
+        <v>0.38051948051948054</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09767451755774491</v>
+        <v>0.11674407849199932</v>
       </c>
     </row>
     <row r="41">
@@ -1087,10 +1087,10 @@
         <v>8.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36168831168831167</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>0.10010650259168331</v>
+        <v>0.09702078981052412</v>
       </c>
     </row>
     <row r="42">
@@ -1104,10 +1104,10 @@
         <v>9.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3751082251082251</v>
+        <v>0.39025974025974025</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08178808193923491</v>
+        <v>0.09364540169511126</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         <v>9.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.37597402597402596</v>
+        <v>0.370995670995671</v>
       </c>
       <c r="E43" t="n">
-        <v>0.10780123824626188</v>
+        <v>0.11059549409272693</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         <v>9.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3432900432900433</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07839629098593082</v>
+        <v>0.11386826700205592</v>
       </c>
     </row>
     <row r="45">
@@ -1158,7 +1158,7 @@
         <v>0.3619047619047619</v>
       </c>
       <c r="E45" t="n">
-        <v>0.10179452169856162</v>
+        <v>0.10641976666212978</v>
       </c>
     </row>
     <row r="46">
@@ -1172,10 +1172,10 @@
         <v>9.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.37554112554112556</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09471328795015964</v>
+        <v>0.10649433748703023</v>
       </c>
     </row>
     <row r="47">
@@ -1189,10 +1189,10 @@
         <v>10.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3699134199134199</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09875576541608926</v>
+        <v>0.09338488386558794</v>
       </c>
     </row>
     <row r="48">
@@ -1206,10 +1206,10 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.37056277056277054</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0925649153114641</v>
+        <v>0.10241142985180628</v>
       </c>
     </row>
     <row r="49">
@@ -1223,10 +1223,10 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.36688311688311687</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E49" t="n">
-        <v>0.11706668819023738</v>
+        <v>0.12717747316487768</v>
       </c>
     </row>
     <row r="50">
@@ -1240,10 +1240,10 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.3621212121212121</v>
       </c>
       <c r="E50" t="n">
-        <v>0.10393117092992737</v>
+        <v>0.09800758085060157</v>
       </c>
     </row>
     <row r="51">
@@ -1257,10 +1257,10 @@
         <v>10.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.370995670995671</v>
+        <v>0.3621212121212121</v>
       </c>
       <c r="E51" t="n">
-        <v>0.09153794273022274</v>
+        <v>0.09800758085060157</v>
       </c>
     </row>
     <row r="52">
@@ -1274,10 +1274,10 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3569264069264069</v>
+        <v>0.37186147186147184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.12000120943595165</v>
+        <v>0.09631318509191755</v>
       </c>
     </row>
     <row r="53">
@@ -1291,10 +1291,10 @@
         <v>11.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.37077922077922076</v>
+        <v>0.36688311688311687</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09341163708116969</v>
+        <v>0.0952285294072189</v>
       </c>
     </row>
     <row r="54">
@@ -1308,10 +1308,10 @@
         <v>11.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3528138528138528</v>
+        <v>0.36233766233766235</v>
       </c>
       <c r="E54" t="n">
-        <v>0.11986470220661002</v>
+        <v>0.09882821810304797</v>
       </c>
     </row>
     <row r="55">
@@ -1325,10 +1325,10 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3564935064935065</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08289443587595687</v>
+        <v>0.10634147220678353</v>
       </c>
     </row>
     <row r="56">
@@ -1342,10 +1342,10 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.370995670995671</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09215035912297835</v>
+        <v>0.10808649131490726</v>
       </c>
     </row>
     <row r="57">
@@ -1359,10 +1359,10 @@
         <v>12.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4082251082251082</v>
+        <v>0.3906926406926407</v>
       </c>
       <c r="E57" t="n">
-        <v>0.11649142499939909</v>
+        <v>0.10103200133643489</v>
       </c>
     </row>
     <row r="58">
@@ -1376,10 +1376,10 @@
         <v>12.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.38073593073593076</v>
+        <v>0.3612554112554113</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1214285928635286</v>
+        <v>0.10629569218722862</v>
       </c>
     </row>
     <row r="59">
@@ -1393,10 +1393,10 @@
         <v>12.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.37142857142857144</v>
+        <v>0.36233766233766235</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08893619550377581</v>
+        <v>0.11249952426198638</v>
       </c>
     </row>
     <row r="60">
@@ -1410,10 +1410,10 @@
         <v>12.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.36168831168831167</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1034451895338965</v>
+        <v>0.10501962860703115</v>
       </c>
     </row>
     <row r="61">
@@ -1427,10 +1427,10 @@
         <v>12.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.370995670995671</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08849023251429883</v>
+        <v>0.1025051693805439</v>
       </c>
     </row>
     <row r="62">
@@ -1444,10 +1444,10 @@
         <v>13.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3569264069264069</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="E62" t="n">
-        <v>0.08065622972141259</v>
+        <v>0.11880468456922072</v>
       </c>
     </row>
     <row r="63">
@@ -1461,10 +1461,10 @@
         <v>13.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.3575757575757576</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10632776474973885</v>
+        <v>0.10549613708074218</v>
       </c>
     </row>
     <row r="64">
@@ -1478,10 +1478,10 @@
         <v>13.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3523809523809524</v>
+        <v>0.3482683982683983</v>
       </c>
       <c r="E64" t="n">
-        <v>0.113941389562211</v>
+        <v>0.09415764097957662</v>
       </c>
     </row>
     <row r="65">
@@ -1495,10 +1495,10 @@
         <v>13.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.37597402597402596</v>
+        <v>0.3577922077922078</v>
       </c>
       <c r="E65" t="n">
-        <v>0.10607312115106168</v>
+        <v>0.11131262063086841</v>
       </c>
     </row>
     <row r="66">
@@ -1512,10 +1512,10 @@
         <v>13.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.36645021645021647</v>
+        <v>0.3800865800865801</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09786938547395016</v>
+        <v>0.09272449267348128</v>
       </c>
     </row>
     <row r="67">
@@ -1529,10 +1529,10 @@
         <v>14.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3794372294372294</v>
+        <v>0.3997835497835498</v>
       </c>
       <c r="E67" t="n">
-        <v>0.11282688853959336</v>
+        <v>0.116861068948261</v>
       </c>
     </row>
     <row r="68">
@@ -1546,10 +1546,10 @@
         <v>14.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.37012987012987014</v>
+        <v>0.3945887445887446</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09482726554589449</v>
+        <v>0.1164773477962841</v>
       </c>
     </row>
     <row r="69">
@@ -1563,10 +1563,10 @@
         <v>14.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0917413063506628</v>
+        <v>0.10615627219480245</v>
       </c>
     </row>
     <row r="70">
@@ -1580,10 +1580,10 @@
         <v>14.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3943722943722944</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E70" t="n">
-        <v>0.10080787838282544</v>
+        <v>0.1262236592106779</v>
       </c>
     </row>
     <row r="71">
@@ -1597,10 +1597,10 @@
         <v>14.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.370995670995671</v>
+        <v>0.3800865800865801</v>
       </c>
       <c r="E71" t="n">
-        <v>0.11018995611007706</v>
+        <v>0.10929819133946048</v>
       </c>
     </row>
     <row r="72">
@@ -1614,10 +1614,10 @@
         <v>15.0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.38441558441558443</v>
+        <v>0.4316017316017316</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1044866573626136</v>
+        <v>0.09395701419389721</v>
       </c>
     </row>
     <row r="73">
@@ -1631,10 +1631,10 @@
         <v>15.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.38463203463203466</v>
+        <v>0.3943722943722944</v>
       </c>
       <c r="E73" t="n">
-        <v>0.11359936638619152</v>
+        <v>0.11546175843292009</v>
       </c>
     </row>
     <row r="74">
@@ -1648,10 +1648,10 @@
         <v>15.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.37597402597402596</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="E74" t="n">
-        <v>0.11297443440069922</v>
+        <v>0.09805404510667529</v>
       </c>
     </row>
     <row r="75">
@@ -1665,10 +1665,10 @@
         <v>15.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.38961038961038963</v>
+        <v>0.3800865800865801</v>
       </c>
       <c r="E75" t="n">
-        <v>0.10483383138211352</v>
+        <v>0.10214880729919087</v>
       </c>
     </row>
     <row r="76">
@@ -1682,10 +1682,10 @@
         <v>15.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.37554112554112556</v>
+        <v>0.3803030303030303</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08923450219903623</v>
+        <v>0.09855842464620375</v>
       </c>
     </row>
   </sheetData>
